--- a/tf.xlsx
+++ b/tf.xlsx
@@ -1377,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MB6"/>
+  <dimension ref="A1:MA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,1029 +1385,1028 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:340">
-      <c r="B1" s="1" t="s"/>
+    <row r="1" spans="1:339">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="HM1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="HN1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="HP1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="HQ1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="HR1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="IC1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="ID1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="IE1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="IF1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="IG1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="IH1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="II1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="IJ1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="IK1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="IL1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="IM1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="IN1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="IO1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="IP1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="IQ1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="IR1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="IS1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="IT1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="IU1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="IV1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="IW1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="IX1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="IY1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="IZ1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="JA1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="JB1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="JC1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="JD1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="JE1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="JF1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="JG1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="JH1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="JI1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JJ1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="JK1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="JL1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="JM1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="JN1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="JO1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="JP1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="JQ1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="JR1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="JS1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="JT1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="JU1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="JV1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="JW1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="JX1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="JY1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="JZ1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="KA1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="KB1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="KC1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="KD1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="KE1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="KF1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="KG1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="KH1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="KI1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="KJ1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="KK1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="KL1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="KM1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="KN1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="KO1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="KP1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="KQ1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="KR1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="KS1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="KT1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="KU1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="KV1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="KW1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="KX1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="KY1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="KZ1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="LA1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="LB1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="LC1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="LD1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="LE1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="LF1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="LG1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="LH1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="LI1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="LJ1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="LK1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="LL1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="LM1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="LN1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="LO1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="LP1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="LQ1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="LR1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="LS1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="LT1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="LU1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="LV1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="LW1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="LX1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="LY1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="LZ1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="MA1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MB1" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:340">
+    <row r="2" spans="1:339">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2425,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2473,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -2509,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -2545,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -2572,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
@@ -2647,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -2665,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -2689,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
@@ -2710,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
@@ -2731,25 +2730,25 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>0.012121</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.009091</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
@@ -2761,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -2788,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
@@ -2842,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
         <v>0</v>
@@ -2869,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
         <v>0</v>
@@ -2902,22 +2901,22 @@
         <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.018182</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.013636</v>
+        <v>0.006061</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -2944,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>0.012121</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.009091</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
@@ -2968,16 +2967,16 @@
         <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.004545</v>
+        <v>0.018182</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.013636</v>
+        <v>0</v>
       </c>
       <c r="GK2" t="n">
         <v>0</v>
@@ -2989,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="GN2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="GP2" t="n">
         <v>0</v>
@@ -3007,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="GT2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="GV2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="GX2" t="n">
         <v>0</v>
@@ -3025,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="HB2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="HD2" t="n">
         <v>0</v>
@@ -3058,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="HK2" t="n">
-        <v>0</v>
+        <v>0.012121</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.009091</v>
+        <v>0</v>
       </c>
       <c r="HM2" t="n">
         <v>0</v>
@@ -3076,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="HS2" t="n">
         <v>0</v>
@@ -3088,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="HU2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -3100,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="IA2" t="n">
         <v>0</v>
@@ -3133,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0</v>
+        <v>0.018182</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.013636</v>
+        <v>0.006061</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="IM2" t="n">
         <v>0</v>
@@ -3157,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="IR2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="IT2" t="n">
         <v>0</v>
@@ -3181,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="JB2" t="n">
         <v>0</v>
@@ -3202,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="JJ2" t="n">
         <v>0</v>
@@ -3247,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="JV2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="JX2" t="n">
         <v>0</v>
@@ -3277,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="KF2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="KH2" t="n">
         <v>0</v>
@@ -3307,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="KP2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="KS2" t="n">
         <v>0</v>
@@ -3322,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="KU2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="KW2" t="n">
         <v>0</v>
@@ -3334,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="KY2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="LB2" t="n">
         <v>0</v>
@@ -3355,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="LF2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="LH2" t="n">
         <v>0</v>
@@ -3379,22 +3378,22 @@
         <v>0</v>
       </c>
       <c r="LN2" t="n">
-        <v>0</v>
+        <v>0.030303</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.022727</v>
+        <v>0.006061</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="LQ2" t="n">
         <v>0</v>
       </c>
       <c r="LR2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="LT2" t="n">
         <v>0</v>
@@ -3403,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="LV2" t="n">
-        <v>0</v>
+        <v>0.006061</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.004545</v>
+        <v>0</v>
       </c>
       <c r="LX2" t="n">
         <v>0</v>
@@ -3418,18 +3417,15 @@
         <v>0</v>
       </c>
       <c r="MA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0.004545</v>
+        <v>0.006061</v>
       </c>
     </row>
-    <row r="3" spans="1:340">
+    <row r="3" spans="1:339">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.056122</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3438,13 +3434,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3453,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3483,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -3498,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -3516,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.005102</v>
+        <v>0.014184</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -3606,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -3630,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
@@ -3702,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>0.021277</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.015306</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -3744,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
@@ -3768,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -3786,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
@@ -3840,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
@@ -3852,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3936,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
@@ -3963,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.005102</v>
+        <v>0.014184</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
@@ -3996,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
         <v>0</v>
@@ -4029,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="GT3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
-        <v>0</v>
+        <v>0.021277</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.015306</v>
+        <v>0.007092</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
         <v>0</v>
@@ -4155,22 +4151,22 @@
         <v>0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.010204</v>
+        <v>0.014184</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="IP3" t="n">
         <v>0</v>
@@ -4200,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="IY3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="JB3" t="n">
         <v>0</v>
@@ -4218,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="JE3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="JF3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="JG3" t="n">
         <v>0</v>
@@ -4266,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="JU3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="JW3" t="n">
         <v>0</v>
@@ -4347,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="KV3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="KX3" t="n">
         <v>0</v>
@@ -4377,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="LF3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="LH3" t="n">
         <v>0</v>
       </c>
       <c r="LI3" t="n">
-        <v>0</v>
+        <v>0.014184</v>
       </c>
       <c r="LJ3" t="n">
-        <v>0.010204</v>
+        <v>0</v>
       </c>
       <c r="LK3" t="n">
         <v>0</v>
@@ -4398,84 +4394,81 @@
         <v>0</v>
       </c>
       <c r="LM3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="LP3" t="n">
         <v>0</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="LR3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="LS3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="LV3" t="n">
         <v>0</v>
       </c>
       <c r="LW3" t="n">
-        <v>0</v>
+        <v>0.007092</v>
       </c>
       <c r="LX3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.005102</v>
+        <v>0.007092</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.005102</v>
+        <v>0</v>
       </c>
       <c r="MA3" t="n">
         <v>0</v>
       </c>
-      <c r="MB3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:340">
+    <row r="4" spans="1:339">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02621</v>
+        <v>0.00232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.006961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004032</v>
+        <v>0.00232</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4490,40 +4483,40 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004032</v>
+        <v>0.00232</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -4538,37 +4531,37 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.002016</v>
+        <v>0.013921</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.012097</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002016</v>
+        <v>0.006961</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -4580,46 +4573,46 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
         <v>0</v>
@@ -4631,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -4658,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -4703,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -4724,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -4739,25 +4732,25 @@
         <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -4766,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
@@ -4790,31 +4783,31 @@
         <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>0.006961</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.006048</v>
+        <v>0.00232</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -4823,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
@@ -4847,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.002016</v>
+        <v>0.006961</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
@@ -4868,25 +4861,25 @@
         <v>0</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -4901,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
@@ -4913,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
         <v>0</v>
@@ -4925,55 +4918,55 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>0.006961</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.006048</v>
+        <v>0.00232</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.004032</v>
+        <v>0.006961</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
@@ -4988,25 +4981,25 @@
         <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
         <v>0</v>
@@ -5018,22 +5011,22 @@
         <v>0</v>
       </c>
       <c r="GI4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.004032</v>
+        <v>0.00232</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="GO4" t="n">
         <v>0</v>
@@ -5051,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0</v>
+        <v>0.006961</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="GX4" t="n">
         <v>0</v>
@@ -5075,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="HB4" t="n">
-        <v>0</v>
+        <v>0.023202</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.020161</v>
+        <v>0</v>
       </c>
       <c r="HD4" t="n">
         <v>0</v>
@@ -5090,49 +5083,49 @@
         <v>0</v>
       </c>
       <c r="HG4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="HH4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="HI4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="HJ4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="HK4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="HM4" t="n">
         <v>0</v>
       </c>
       <c r="HN4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="HP4" t="n">
         <v>0</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="HS4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="HU4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="HV4" t="n">
         <v>0</v>
@@ -5147,58 +5140,58 @@
         <v>0</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="ID4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.002016</v>
+        <v>0.00464</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.004032</v>
+        <v>0.013921</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.012097</v>
+        <v>0</v>
       </c>
       <c r="IH4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="II4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0</v>
+        <v>0.016241</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.014113</v>
+        <v>0.009280999999999999</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.008064999999999999</v>
+        <v>0.00232</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="IN4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="IO4" t="n">
-        <v>0.004032</v>
+        <v>0</v>
       </c>
       <c r="IP4" t="n">
-        <v>0</v>
+        <v>0.006961</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.006048</v>
+        <v>0</v>
       </c>
       <c r="IR4" t="n">
         <v>0</v>
@@ -5210,37 +5203,37 @@
         <v>0</v>
       </c>
       <c r="IU4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="IW4" t="n">
         <v>0</v>
       </c>
       <c r="IX4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="IY4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="IZ4" t="n">
         <v>0</v>
       </c>
       <c r="JA4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="JB4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="JC4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="JD4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="JE4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="JF4" t="n">
         <v>0</v>
@@ -5267,25 +5260,25 @@
         <v>0</v>
       </c>
       <c r="JN4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="JO4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="JP4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="JQ4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="JR4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="JS4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="JT4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="JU4" t="n">
         <v>0</v>
@@ -5297,28 +5290,28 @@
         <v>0</v>
       </c>
       <c r="JX4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="JY4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="JZ4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="KA4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="KB4" t="n">
         <v>0</v>
       </c>
       <c r="KC4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="KD4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="KE4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="KF4" t="n">
         <v>0</v>
@@ -5336,19 +5329,19 @@
         <v>0</v>
       </c>
       <c r="KK4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="KL4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="KM4" t="n">
         <v>0</v>
       </c>
       <c r="KN4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="KO4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="KP4" t="n">
         <v>0</v>
@@ -5360,16 +5353,16 @@
         <v>0</v>
       </c>
       <c r="KS4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="KT4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="KU4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="KV4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="KW4" t="n">
         <v>0</v>
@@ -5384,55 +5377,55 @@
         <v>0</v>
       </c>
       <c r="LA4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="LB4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="LC4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="LD4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="LE4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="LF4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="LG4" t="n">
         <v>0</v>
       </c>
       <c r="LH4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="LI4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="LJ4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="LK4" t="n">
-        <v>0.002016</v>
+        <v>0.00232</v>
       </c>
       <c r="LL4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="LM4" t="n">
-        <v>0</v>
+        <v>0.00464</v>
       </c>
       <c r="LN4" t="n">
-        <v>0.004032</v>
+        <v>0.023202</v>
       </c>
       <c r="LO4" t="n">
-        <v>0.020161</v>
+        <v>0.00464</v>
       </c>
       <c r="LP4" t="n">
-        <v>0.004032</v>
+        <v>0.00232</v>
       </c>
       <c r="LQ4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="LR4" t="n">
         <v>0</v>
@@ -5450,54 +5443,51 @@
         <v>0</v>
       </c>
       <c r="LW4" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="LX4" t="n">
-        <v>0.002016</v>
+        <v>0</v>
       </c>
       <c r="LY4" t="n">
         <v>0</v>
       </c>
       <c r="LZ4" t="n">
-        <v>0</v>
+        <v>0.009280999999999999</v>
       </c>
       <c r="MA4" t="n">
-        <v>0.008064999999999999</v>
-      </c>
-      <c r="MB4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:340">
+    <row r="5" spans="1:339">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017456</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002494</v>
+        <v>0.008196999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007481</v>
+        <v>0.002732</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -5509,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.010929</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009974999999999999</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -5527,91 +5517,91 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -5626,67 +5616,67 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.004988</v>
+        <v>0.002732</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
         <v>0</v>
@@ -5695,25 +5685,25 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -5734,28 +5724,28 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
@@ -5773,28 +5763,28 @@
         <v>0</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.004988</v>
+        <v>0.002732</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
         <v>0</v>
@@ -5803,31 +5793,31 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>0.013661</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.012469</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
@@ -5836,67 +5826,67 @@
         <v>0</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
@@ -5917,70 +5907,70 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>0.008196999999999999</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.007481</v>
+        <v>0.002732</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -5995,19 +5985,19 @@
         <v>0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
@@ -6019,31 +6009,31 @@
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="GH5" t="n">
         <v>0</v>
       </c>
       <c r="GI5" t="n">
-        <v>0</v>
+        <v>0.008196999999999999</v>
       </c>
       <c r="GJ5" t="n">
-        <v>0.007481</v>
+        <v>0</v>
       </c>
       <c r="GK5" t="n">
         <v>0</v>
@@ -6058,25 +6048,25 @@
         <v>0</v>
       </c>
       <c r="GO5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.004988</v>
+        <v>0.002732</v>
       </c>
       <c r="GS5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.002494</v>
+        <v>0.005464</v>
       </c>
       <c r="GU5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="GV5" t="n">
         <v>0</v>
@@ -6085,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="GX5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="GY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="GZ5" t="n">
         <v>0</v>
@@ -6097,34 +6087,34 @@
         <v>0</v>
       </c>
       <c r="HB5" t="n">
-        <v>0</v>
+        <v>0.019126</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.017456</v>
+        <v>0</v>
       </c>
       <c r="HD5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.004988</v>
+        <v>0</v>
       </c>
       <c r="HF5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HH5" t="n">
         <v>0</v>
       </c>
       <c r="HI5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="HJ5" t="n">
-        <v>0.004988</v>
+        <v>0.002732</v>
       </c>
       <c r="HK5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HL5" t="n">
         <v>0</v>
@@ -6136,37 +6126,37 @@
         <v>0</v>
       </c>
       <c r="HO5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="HP5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HR5" t="n">
         <v>0</v>
       </c>
       <c r="HS5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="HT5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HU5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="HV5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HW5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="HZ5" t="n">
         <v>0</v>
@@ -6199,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="IJ5" t="n">
-        <v>0</v>
+        <v>0.019126</v>
       </c>
       <c r="IK5" t="n">
-        <v>0.017456</v>
+        <v>0</v>
       </c>
       <c r="IL5" t="n">
         <v>0</v>
@@ -6217,22 +6207,22 @@
         <v>0</v>
       </c>
       <c r="IP5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="IQ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="IR5" t="n">
         <v>0</v>
       </c>
       <c r="IS5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="IT5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="IV5" t="n">
         <v>0</v>
@@ -6265,19 +6255,19 @@
         <v>0</v>
       </c>
       <c r="JF5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="JG5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="JH5" t="n">
         <v>0</v>
       </c>
       <c r="JI5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="JJ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="JK5" t="n">
         <v>0</v>
@@ -6316,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="JW5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="JX5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="JY5" t="n">
         <v>0</v>
@@ -6328,22 +6318,22 @@
         <v>0</v>
       </c>
       <c r="KA5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="KB5" t="n">
-        <v>0.002494</v>
+        <v>0.002732</v>
       </c>
       <c r="KC5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="KD5" t="n">
         <v>0</v>
       </c>
       <c r="KE5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="KF5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="KG5" t="n">
         <v>0</v>
@@ -6376,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="KQ5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="KR5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="KS5" t="n">
         <v>0</v>
@@ -6394,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="KW5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="KX5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="KY5" t="n">
         <v>0</v>
@@ -6412,10 +6402,10 @@
         <v>0</v>
       </c>
       <c r="LC5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="LD5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="LE5" t="n">
         <v>0</v>
@@ -6424,16 +6414,16 @@
         <v>0</v>
       </c>
       <c r="LG5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="LH5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="LI5" t="n">
-        <v>0</v>
+        <v>0.008196999999999999</v>
       </c>
       <c r="LJ5" t="n">
-        <v>0.007481</v>
+        <v>0</v>
       </c>
       <c r="LK5" t="n">
         <v>0</v>
@@ -6442,19 +6432,19 @@
         <v>0</v>
       </c>
       <c r="LM5" t="n">
-        <v>0</v>
+        <v>0.005464</v>
       </c>
       <c r="LN5" t="n">
-        <v>0.004988</v>
+        <v>0.032787</v>
       </c>
       <c r="LO5" t="n">
-        <v>0.029925</v>
+        <v>0</v>
       </c>
       <c r="LP5" t="n">
-        <v>0</v>
+        <v>0.002732</v>
       </c>
       <c r="LQ5" t="n">
-        <v>0.002494</v>
+        <v>0</v>
       </c>
       <c r="LR5" t="n">
         <v>0</v>
@@ -6481,33 +6471,30 @@
         <v>0</v>
       </c>
       <c r="LZ5" t="n">
-        <v>0</v>
+        <v>0.008196999999999999</v>
       </c>
       <c r="MA5" t="n">
-        <v>0.007481</v>
-      </c>
-      <c r="MB5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:340">
+    <row r="6" spans="1:339">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.013115</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6522,16 +6509,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -6540,10 +6527,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -6573,25 +6560,25 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.010526</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0.010526</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0.007018</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -6621,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
@@ -6636,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
@@ -6663,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -6687,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
@@ -6708,22 +6695,22 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -6738,52 +6725,52 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
@@ -6816,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
         <v>0</v>
@@ -6834,22 +6821,22 @@
         <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.006557</v>
+        <v>0.010526</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -6861,34 +6848,34 @@
         <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>0</v>
@@ -6897,16 +6884,16 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
         <v>0</v>
@@ -6924,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -6936,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>0</v>
@@ -6954,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -6984,19 +6971,19 @@
         <v>0</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
@@ -7008,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -7023,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>0.021053</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.019672</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -7035,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
@@ -7053,22 +7040,22 @@
         <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="GH6" t="n">
         <v>0</v>
       </c>
       <c r="GI6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="GJ6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="GK6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="GL6" t="n">
         <v>0</v>
@@ -7083,25 +7070,25 @@
         <v>0</v>
       </c>
       <c r="GP6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="GQ6" t="n">
-        <v>0.006557</v>
+        <v>0.010526</v>
       </c>
       <c r="GR6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0</v>
       </c>
       <c r="GS6" t="n">
         <v>0</v>
       </c>
       <c r="GT6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="GU6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="GV6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="GW6" t="n">
         <v>0</v>
@@ -7110,37 +7097,37 @@
         <v>0</v>
       </c>
       <c r="GY6" t="n">
-        <v>0</v>
+        <v>0.017544</v>
       </c>
       <c r="GZ6" t="n">
-        <v>0.016393</v>
+        <v>0</v>
       </c>
       <c r="HA6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="HB6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="HC6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="HD6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="HE6" t="n">
-        <v>0</v>
+        <v>0.024561</v>
       </c>
       <c r="HF6" t="n">
-        <v>0.022951</v>
+        <v>0</v>
       </c>
       <c r="HG6" t="n">
         <v>0</v>
       </c>
       <c r="HH6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="HI6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="HJ6" t="n">
         <v>0</v>
@@ -7149,16 +7136,16 @@
         <v>0</v>
       </c>
       <c r="HL6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="HM6" t="n">
-        <v>0.006557</v>
+        <v>0.007018</v>
       </c>
       <c r="HN6" t="n">
-        <v>0.006557</v>
+        <v>0.010526</v>
       </c>
       <c r="HO6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0</v>
       </c>
       <c r="HP6" t="n">
         <v>0</v>
@@ -7167,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="HR6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="HS6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="HT6" t="n">
         <v>0</v>
@@ -7179,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="HV6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="HW6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="HX6" t="n">
         <v>0</v>
@@ -7200,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="IC6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="ID6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="IE6" t="n">
         <v>0</v>
@@ -7212,40 +7199,40 @@
         <v>0</v>
       </c>
       <c r="IG6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IH6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="II6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IJ6" t="n">
-        <v>0.003279</v>
+        <v>0.021053</v>
       </c>
       <c r="IK6" t="n">
-        <v>0.019672</v>
+        <v>0</v>
       </c>
       <c r="IL6" t="n">
         <v>0</v>
       </c>
       <c r="IM6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IN6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="IO6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IP6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="IQ6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IR6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="IS6" t="n">
         <v>0</v>
@@ -7257,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="IV6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="IW6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="IX6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="IY6" t="n">
         <v>0</v>
@@ -7299,40 +7286,40 @@
         <v>0</v>
       </c>
       <c r="JJ6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="JK6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="JL6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="JM6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="JN6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="JO6" t="n">
         <v>0</v>
       </c>
       <c r="JP6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="JQ6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="JR6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="JS6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="JT6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="JU6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="JV6" t="n">
         <v>0</v>
@@ -7368,43 +7355,43 @@
         <v>0</v>
       </c>
       <c r="KG6" t="n">
-        <v>0</v>
+        <v>0.007018</v>
       </c>
       <c r="KH6" t="n">
-        <v>0.006557</v>
+        <v>0.003509</v>
       </c>
       <c r="KI6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="KJ6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="KK6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="KL6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="KM6" t="n">
-        <v>0.003279</v>
+        <v>0.003509</v>
       </c>
       <c r="KN6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="KO6" t="n">
-        <v>0</v>
+        <v>0.010526</v>
       </c>
       <c r="KP6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0</v>
       </c>
       <c r="KQ6" t="n">
         <v>0</v>
       </c>
       <c r="KR6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="KS6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="KT6" t="n">
         <v>0</v>
@@ -7419,37 +7406,37 @@
         <v>0</v>
       </c>
       <c r="KX6" t="n">
-        <v>0</v>
+        <v>0.010526</v>
       </c>
       <c r="KY6" t="n">
-        <v>0.009835999999999999</v>
+        <v>0</v>
       </c>
       <c r="KZ6" t="n">
         <v>0</v>
       </c>
       <c r="LA6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="LB6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="LC6" t="n">
-        <v>0.006557</v>
+        <v>0</v>
       </c>
       <c r="LD6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="LE6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="LF6" t="n">
         <v>0</v>
       </c>
       <c r="LG6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="LH6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="LI6" t="n">
         <v>0</v>
@@ -7461,16 +7448,16 @@
         <v>0</v>
       </c>
       <c r="LL6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="LM6" t="n">
-        <v>0.003279</v>
+        <v>0.007018</v>
       </c>
       <c r="LN6" t="n">
-        <v>0.006557</v>
+        <v>0.017544</v>
       </c>
       <c r="LO6" t="n">
-        <v>0.016393</v>
+        <v>0</v>
       </c>
       <c r="LP6" t="n">
         <v>0</v>
@@ -7488,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="LU6" t="n">
-        <v>0</v>
+        <v>0.003509</v>
       </c>
       <c r="LV6" t="n">
-        <v>0.003279</v>
+        <v>0</v>
       </c>
       <c r="LW6" t="n">
         <v>0</v>
@@ -7506,10 +7493,7 @@
         <v>0</v>
       </c>
       <c r="MA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB6" t="n">
-        <v>0.006557</v>
+        <v>0.007018</v>
       </c>
     </row>
   </sheetData>
